--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_6_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_6_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.04000000000032</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002500268347734869</v>
+        <v>0.00220460212857343</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002500268347734869</v>
+        <v>0.00220460212857343</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>47.93180594882749</v>
+        <v>40.99236417316133</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[20.38572449266266, 75.47788740499232]</t>
+          <t>[10.243250890823774, 71.74147745549888]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001047022886772941</v>
+        <v>0.01011737500441634</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001047022886772941</v>
+        <v>0.01011737500441634</v>
       </c>
       <c r="P2" t="n">
-        <v>1.918289808498272</v>
+        <v>2.270500396288118</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2767633807381946, 2.5598162362583503]</t>
+          <t>[1.6038160694001933, 2.937184723176043]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.890594743565345e-07</v>
+        <v>1.647697955853289e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>2.890594743565345e-07</v>
+        <v>1.647697955853289e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>62.12389244554032</v>
+        <v>71.30515794146015</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.87793705642932, 77.36984783465132]</t>
+          <t>[55.73277037085056, 86.87754551206974]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.725777298844378e-10</v>
+        <v>6.164180277323794e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.725777298844378e-10</v>
+        <v>6.164180277323794e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>16.70046046046068</v>
+        <v>15.37203203203224</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.24592592592612</v>
+        <v>12.81805805805823</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.15499499499525</v>
+        <v>17.92600600600625</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.04000000000032</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.596914156398732e-05</v>
+        <v>0.01994502239603024</v>
       </c>
       <c r="I3" t="n">
-        <v>1.596914156398732e-05</v>
+        <v>0.01994502239603024</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>56.67883150977281</v>
+        <v>36.41525086760399</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[30.347679838068245, 83.00998318147738]</t>
+          <t>[7.927196009408064, 64.90330572579991]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.087193730288433e-05</v>
+        <v>0.01339760020536662</v>
       </c>
       <c r="O3" t="n">
-        <v>8.087193730288433e-05</v>
+        <v>0.01339760020536662</v>
       </c>
       <c r="P3" t="n">
-        <v>1.327079178993887</v>
+        <v>1.490605523324886</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.7736053981812709, 1.8805529598065025]</t>
+          <t>[0.3836579616996527, 2.5975530849501194]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.620546798375422e-05</v>
+        <v>0.009434009489280193</v>
       </c>
       <c r="S3" t="n">
-        <v>1.620546798375422e-05</v>
+        <v>0.009434009489280193</v>
       </c>
       <c r="T3" t="n">
-        <v>79.34205410241015</v>
+        <v>59.09935375230709</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[64.22051051153014, 94.46359769329015]</t>
+          <t>[41.34965441680203, 76.84905308781214]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.970602038971265e-14</v>
+        <v>2.782895225372783e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>8.970602038971265e-14</v>
+        <v>2.782895225372783e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>18.96248248248273</v>
+        <v>18.35969969969995</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.84484484484507</v>
+        <v>14.11913913913933</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.0801201201204</v>
+        <v>22.60026026026057</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.04000000000032</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05524406277120553</v>
+        <v>1.456473276750803e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05524406277120553</v>
+        <v>1.456473276750803e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>31.83482756935043</v>
+        <v>57.34576836680959</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.639055209956606, 66.30871034865746]</t>
+          <t>[32.206029797381674, 82.4855069362375]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.06944098932052545</v>
+        <v>3.503416093564304e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06944098932052545</v>
+        <v>3.503416093564304e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>2.081816152829272</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.3459211130078854, 3.817711192650658]</t>
+          <t>[1.1258159859711165, 2.132131951084964]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01983847510680303</v>
+        <v>5.25238688098284e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01983847510680303</v>
+        <v>5.25238688098284e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>65.31046762173909</v>
+        <v>75.02388961401846</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[47.065960325369204, 83.55497491810898]</t>
+          <t>[59.79375375792777, 90.25402547010916]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.980247991781539e-09</v>
+        <v>6.652456363553938e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>4.980247991781539e-09</v>
+        <v>6.652456363553938e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>16.07479479479501</v>
+        <v>17.82962962962987</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.433113113113244</v>
+        <v>15.90210210210232</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.71647647647678</v>
+        <v>19.75715715715742</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.04000000000032</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001557778240637742</v>
+        <v>0.03794772636350552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001557778240637742</v>
+        <v>0.03794772636350552</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>44.62001838615772</v>
+        <v>32.57709067641478</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[15.501283762615046, 73.73875300970039]</t>
+          <t>[4.111613457498613, 61.042567895330954]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.003462507754591559</v>
+        <v>0.02583243854576578</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003462507754591559</v>
+        <v>0.02583243854576578</v>
       </c>
       <c r="P5" t="n">
-        <v>1.817658211986887</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.0377633390236554, 2.5975530849501194]</t>
+          <t>[0.25786846606042335, 2.7736583788450426]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.527931474971545e-05</v>
+        <v>0.01929128690077686</v>
       </c>
       <c r="S5" t="n">
-        <v>2.527931474971545e-05</v>
+        <v>0.01929128690077686</v>
       </c>
       <c r="T5" t="n">
-        <v>62.7577841614572</v>
+        <v>53.01244779703081</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.333762616968855, 79.18180570594554]</t>
+          <t>[35.51484460114453, 70.51005099291709]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9.579648185820133e-10</v>
+        <v>2.201986428751468e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>9.579648185820133e-10</v>
+        <v>2.201986428751468e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>17.08548548548571</v>
+        <v>18.26332332332357</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.10154154154173</v>
+        <v>13.44450450450469</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.0694294294297</v>
+        <v>23.08214214214245</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.04000000000032</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009498860501355733</v>
+        <v>0.0003862778520917765</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009498860501355733</v>
+        <v>0.0003862778520917765</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>51.88378712895018</v>
+        <v>39.91789625512475</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[22.50599911822188, 81.26157513967848]</t>
+          <t>[16.45720794047029, 63.3785845697792]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0008968091536127876</v>
+        <v>0.001314603705668382</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0008968091536127876</v>
+        <v>0.001314603705668382</v>
       </c>
       <c r="P6" t="n">
-        <v>1.691868716347656</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.9497106920761933, 2.434026740619119]</t>
+          <t>[1.1887107337907326, 2.5220793875665803]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.536210482080193e-05</v>
+        <v>1.198828945891961e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>3.536210482080193e-05</v>
+        <v>1.198828945891961e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>66.39118022683547</v>
+        <v>55.93394826234631</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.08933468891402, 84.69302576475692]</t>
+          <t>[42.80962166599308, 69.05827485869953]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.588257913023085e-09</v>
+        <v>4.94984053744929e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.588257913023085e-09</v>
+        <v>4.94984053744929e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>17.566766766767</v>
+        <v>16.96224224224247</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.7272072072074</v>
+        <v>14.40826826826846</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4063263263266</v>
+        <v>19.51621621621648</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.04000000000032</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01273507771433424</v>
+        <v>0.001087398474985179</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01273507771433424</v>
+        <v>0.001087398474985179</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>39.18094294664149</v>
+        <v>40.65547843027822</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[7.578283285140543, 70.78360260814243]</t>
+          <t>[13.347577436842982, 67.96337942371346]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.01624857924670153</v>
+        <v>0.004406848095940052</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01624857924670153</v>
+        <v>0.004406848095940052</v>
       </c>
       <c r="P7" t="n">
-        <v>1.792500312859041</v>
+        <v>2.06923720326535</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.7232895999255788, 2.861711025792504]</t>
+          <t>[1.3899739268135027, 2.7485004797171966]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.001521660505534594</v>
+        <v>1.963970810425764e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001521660505534594</v>
+        <v>1.963970810425764e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>62.01141817354311</v>
+        <v>67.86799274876273</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.03437953293218, 79.98845681415403]</t>
+          <t>[53.37172886144725, 82.36425663607821]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.218653955525895e-08</v>
+        <v>3.168132423070347e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.218653955525895e-08</v>
+        <v>3.168132423070347e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>17.18174174174197</v>
+        <v>16.14304304304326</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.09085085085103</v>
+        <v>13.54088088088106</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.27263263263291</v>
+        <v>18.74520520520545</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.04000000000032</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5.903399488449423e-05</v>
+        <v>0.006375606939659662</v>
       </c>
       <c r="I8" t="n">
-        <v>5.903399488449423e-05</v>
+        <v>0.006375606939659662</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>54.64939055397357</v>
+        <v>45.36153659770087</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[28.749165320373834, 80.5496157875733]</t>
+          <t>[12.81895022599386, 77.90412296940788]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0001063026740306672</v>
+        <v>0.007356317704745097</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001063026740306672</v>
+        <v>0.007356317704745097</v>
       </c>
       <c r="P8" t="n">
-        <v>1.641552918091964</v>
+        <v>1.641552918091963</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.0377633390236554, 2.245342497160273]</t>
+          <t>[0.6729738016698859, 2.6101320345140406]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.859477410048882e-06</v>
+        <v>0.001367073817477804</v>
       </c>
       <c r="S8" t="n">
-        <v>1.859477410048882e-06</v>
+        <v>0.001367073817477804</v>
       </c>
       <c r="T8" t="n">
-        <v>70.83288130295182</v>
+        <v>72.25053356326242</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[55.072235343255116, 86.59352726264852]</t>
+          <t>[53.046156892424165, 91.45491023410068]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.070299404659636e-11</v>
+        <v>1.430416896042175e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>1.070299404659636e-11</v>
+        <v>1.430416896042175e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>17.75927927927951</v>
+        <v>17.78144144144168</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.44912912912933</v>
+        <v>14.07095095095115</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.0694294294297</v>
+        <v>21.49193193193222</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.04000000000032</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8.50662512430489e-07</v>
+        <v>6.588412777530639e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>8.50662512430489e-07</v>
+        <v>6.588412777530639e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>66.1852570764057</v>
+        <v>42.86519469546109</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[40.88591220160505, 91.48460195120636]</t>
+          <t>[21.46271903824851, 64.26767035267368]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.736969717449412e-06</v>
+        <v>0.0002098980143530049</v>
       </c>
       <c r="O9" t="n">
-        <v>3.736969717449412e-06</v>
+        <v>0.0002098980143530049</v>
       </c>
       <c r="P9" t="n">
-        <v>1.742184514603348</v>
+        <v>1.779921363295117</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.2893423303021168, 2.19502669890458]</t>
+          <t>[1.2138686329185768, 2.345974093671658]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.021796560342409e-10</v>
+        <v>9.981223292321317e-08</v>
       </c>
       <c r="S9" t="n">
-        <v>8.021796560342409e-10</v>
+        <v>9.981223292321317e-08</v>
       </c>
       <c r="T9" t="n">
-        <v>55.15504510581933</v>
+        <v>53.52553020887785</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[40.012137139589484, 70.29795307204917]</t>
+          <t>[41.054636392880816, 65.99642402487487]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.243945778663715e-09</v>
+        <v>4.051847746211479e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.243945778663715e-09</v>
+        <v>4.051847746211479e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>17.37425425425449</v>
+        <v>17.2513713713716</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.64164164164185</v>
+        <v>15.0829029029031</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.10686686686713</v>
+        <v>19.41983983984011</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.78000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001635779677940929</v>
+        <v>3.041345521426209e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001635779677940929</v>
+        <v>3.041345521426209e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>47.01677038370063</v>
+        <v>64.27492713207273</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[17.9334489330263, 76.10009183437496]</t>
+          <t>[37.81126440286411, 90.73858986128135]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.002150300064067467</v>
+        <v>1.317505622888682e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002150300064067467</v>
+        <v>1.317505622888682e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.691868716347656</v>
+        <v>1.754763464167271</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.9119738433844251, 2.4717635893108874]</t>
+          <t>[1.2516054816103477, 2.257921446724195]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>7.255136828132613e-05</v>
+        <v>9.38234112624059e-09</v>
       </c>
       <c r="S10" t="n">
-        <v>7.255136828132613e-05</v>
+        <v>9.38234112624059e-09</v>
       </c>
       <c r="T10" t="n">
-        <v>69.22192341216717</v>
+        <v>57.54036624983351</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[51.94278506421526, 86.50106176011909]</t>
+          <t>[41.92920183560663, 73.1515306640604]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.738842486138537e-10</v>
+        <v>2.408408805720796e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>2.738842486138537e-10</v>
+        <v>2.408408805720796e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>17.37677677677698</v>
+        <v>17.18198198198219</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.42510510510528</v>
+        <v>15.27287287287306</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.32844844844869</v>
+        <v>19.09109109109132</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.78000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0003310891329478816</v>
+        <v>0.1276146506652338</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003310891329478816</v>
+        <v>0.1276146506652338</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>48.12309535096932</v>
+        <v>27.07326374251548</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[20.242986938947013, 76.00320376299162]</t>
+          <t>[-6.924854878263556, 61.07138236329452]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.001137381849098285</v>
+        <v>0.1157406523901334</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001137381849098285</v>
+        <v>0.1157406523901334</v>
       </c>
       <c r="P11" t="n">
-        <v>2.031500354573581</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.4025528763774258, 2.6604478327697354]</t>
+          <t>[0.018868424345884094, 3.6416058987557367]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>5.531316271678577e-08</v>
+        <v>0.04775827863544557</v>
       </c>
       <c r="S11" t="n">
-        <v>5.531316271678577e-08</v>
+        <v>0.04775827863544557</v>
       </c>
       <c r="T11" t="n">
-        <v>64.53333284831297</v>
+        <v>61.18361085776085</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[48.96899908932039, 80.09766660730554]</t>
+          <t>[42.68572461430883, 79.68149710121287]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.069333510628212e-10</v>
+        <v>3.238665180482769e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>1.069333510628212e-10</v>
+        <v>3.238665180482769e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>16.09137137137156</v>
+        <v>16.89561561561582</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.71099099099115</v>
+        <v>10.02282282282294</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.47175175175197</v>
+        <v>23.7684084084087</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.78000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.450242048350869e-05</v>
+        <v>0.0002729691434665282</v>
       </c>
       <c r="I12" t="n">
-        <v>1.450242048350869e-05</v>
+        <v>0.0002729691434665282</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>53.24165542138928</v>
+        <v>53.02202709519492</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[28.39133640710017, 78.0919744356784]</t>
+          <t>[22.678204610957238, 83.3658495794326]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>8.627950359585412e-05</v>
+        <v>0.001002534678232525</v>
       </c>
       <c r="O12" t="n">
-        <v>8.627950359585412e-05</v>
+        <v>0.001002534678232525</v>
       </c>
       <c r="P12" t="n">
-        <v>1.830237161550811</v>
+        <v>1.968605606753965</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.3019212798660416, 2.358553043235581]</t>
+          <t>[1.3396581285578097, 2.5975530849501194]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.100630098171962e-08</v>
+        <v>1.102705067257403e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>1.100630098171962e-08</v>
+        <v>1.102705067257403e-07</v>
       </c>
       <c r="T12" t="n">
-        <v>59.44281194885844</v>
+        <v>61.14225701945188</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.39195434839502, 73.49366954932187]</t>
+          <t>[44.226176649746236, 78.05833738915751]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.094458271377334e-11</v>
+        <v>3.925687552808199e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>6.094458271377334e-11</v>
+        <v>3.925687552808199e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>16.85309309309329</v>
+        <v>16.37061061061081</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.85357357357374</v>
+        <v>13.98422422422439</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.85261261261283</v>
+        <v>18.75699699699722</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.78000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>6.026410492854239e-07</v>
+        <v>0.001047246681256331</v>
       </c>
       <c r="I13" t="n">
-        <v>6.026410492854239e-07</v>
+        <v>0.001047246681256331</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>69.18471859954022</v>
+        <v>39.2895734616982</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[42.852006091091525, 95.51743110798891]</t>
+          <t>[13.682780064504541, 64.89636685889185]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.462699551315396e-06</v>
+        <v>0.003424200727635274</v>
       </c>
       <c r="O13" t="n">
-        <v>3.462699551315396e-06</v>
+        <v>0.003424200727635274</v>
       </c>
       <c r="P13" t="n">
-        <v>1.767342413731195</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.3270791789938867, 2.207605648468504]</t>
+          <t>[1.2767633807381946, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.591888925707053e-10</v>
+        <v>6.18289395237781e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>2.591888925707053e-10</v>
+        <v>6.18289395237781e-07</v>
       </c>
       <c r="T13" t="n">
-        <v>76.872995591603</v>
+        <v>60.67241740851041</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[61.371458311296124, 92.37453287190988]</t>
+          <t>[46.73937896197848, 74.60545585504232]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>2.679545474393308e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>2.679545474393308e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>17.09113113113133</v>
+        <v>16.41833833833854</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.42486486486504</v>
+        <v>13.84104104104121</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.75739739739762</v>
+        <v>18.99563563563586</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.78000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02306630295853795</v>
+        <v>0.00169466327391754</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02306630295853795</v>
+        <v>0.00169466327391754</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>38.22647353933674</v>
+        <v>41.07323112519221</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.697871222397481, 75.755075856276]</t>
+          <t>[13.072832398877424, 69.073629851507]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.04605979468829924</v>
+        <v>0.004968042088926206</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04605979468829924</v>
+        <v>0.004968042088926206</v>
       </c>
       <c r="P14" t="n">
-        <v>2.257921446724197</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.0000264903318863, 3.5158164031165073]</t>
+          <t>[1.1509738850989626, 2.6856057318975806]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.0007541879097279214</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0007541879097279214</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="T14" t="n">
-        <v>78.60692774477016</v>
+        <v>55.14367604173018</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[59.63365339743806, 97.58020209210227]</t>
+          <t>[39.95780250387979, 70.32954957958057]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.092437251770662e-10</v>
+        <v>3.498951350877633e-09</v>
       </c>
       <c r="W14" t="n">
-        <v>1.092437251770662e-10</v>
+        <v>3.498951350877633e-09</v>
       </c>
       <c r="X14" t="n">
-        <v>15.23443443443461</v>
+        <v>16.56152152152172</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.47367367367379</v>
+        <v>13.6501301301303</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.99519519519543</v>
+        <v>19.47291291291315</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_6_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_6_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.07000000000032</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00220460212857343</v>
+        <v>4.497455328200672e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00220460212857343</v>
+        <v>4.497455328200672e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>40.99236417316133</v>
+        <v>56.59209993194006</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[10.243250890823774, 71.74147745549888]</t>
+          <t>[28.92003571990098, 84.26416414397913]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01011737500441634</v>
+        <v>0.0001607342030283121</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01011737500441634</v>
+        <v>0.0001607342030283121</v>
       </c>
       <c r="P2" t="n">
-        <v>2.270500396288118</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.6038160694001933, 2.937184723176043]</t>
+          <t>[1.1635528346628856, 2.295658295415965]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.647697955853289e-08</v>
+        <v>1.842539885110739e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>1.647697955853289e-08</v>
+        <v>1.842539885110739e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>71.30515794146015</v>
+        <v>63.85830524352937</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[55.73277037085056, 86.87754551206974]</t>
+          <t>[47.78102450110843, 79.93558598595031]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.164180277323794e-12</v>
+        <v>3.447797602973424e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>6.164180277323794e-12</v>
+        <v>3.447797602973424e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>15.37203203203224</v>
+        <v>17.45861861861886</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.81805805805823</v>
+        <v>15.28834834834856</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.92600600600625</v>
+        <v>19.62888888888916</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.07000000000032</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01994502239603024</v>
+        <v>0.0006671584297087696</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01994502239603024</v>
+        <v>0.0006671584297087696</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>36.41525086760399</v>
+        <v>45.30856182287842</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[7.927196009408064, 64.90330572579991]</t>
+          <t>[17.615747380301556, 73.00137626545528]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.01339760020536662</v>
+        <v>0.001922563939019462</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01339760020536662</v>
+        <v>0.001922563939019462</v>
       </c>
       <c r="P3" t="n">
-        <v>1.490605523324886</v>
+        <v>1.327079178993886</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.3836579616996527, 2.5975530849501194]</t>
+          <t>[0.635236952978115, 2.0189214050096567]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.009434009489280193</v>
+        <v>0.0003557914363909731</v>
       </c>
       <c r="S3" t="n">
-        <v>0.009434009489280193</v>
+        <v>0.0003557914363909731</v>
       </c>
       <c r="T3" t="n">
-        <v>59.09935375230709</v>
+        <v>57.40798196032274</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.34965441680203, 76.84905308781214]</t>
+          <t>[41.86226493906719, 72.9536989815783]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.782895225372783e-08</v>
+        <v>2.29589369737937e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.782895225372783e-08</v>
+        <v>2.29589369737937e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>18.35969969969995</v>
+        <v>19.00192192192218</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.11913913913933</v>
+        <v>16.34936936936959</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.60026026026057</v>
+        <v>21.65447447447477</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.07000000000032</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456473276750803e-05</v>
+        <v>7.500660719528263e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456473276750803e-05</v>
+        <v>7.500660719528263e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>57.34576836680959</v>
+        <v>61.75749888152393</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[32.206029797381674, 82.4855069362375]</t>
+          <t>[35.42114358127124, 88.09385418177662]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.503416093564304e-05</v>
+        <v>2.299855174414667e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>3.503416093564304e-05</v>
+        <v>2.299855174414667e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62897396852804</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.1258159859711165, 2.132131951084964]</t>
+          <t>[1.1383949355350405, 2.169868799776734]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.25238688098284e-08</v>
+        <v>6.468368662915225e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>5.25238688098284e-08</v>
+        <v>6.468368662915225e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>75.02388961401846</v>
+        <v>62.35384887762668</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[59.79375375792777, 90.25402547010916]</t>
+          <t>[46.54560591941977, 78.16209183583359]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.652456363553938e-13</v>
+        <v>4.153459798317272e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>6.652456363553938e-13</v>
+        <v>4.153459798317272e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>17.82962962962987</v>
+        <v>17.74798798798823</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.90210210210232</v>
+        <v>15.77063063063084</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.75715715715742</v>
+        <v>19.72534534534561</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.07000000000032</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03794772636350552</v>
+        <v>0.0001824714155631568</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03794772636350552</v>
+        <v>0.0001824714155631568</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>32.57709067641478</v>
+        <v>54.8647144844392</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[4.111613457498613, 61.042567895330954]</t>
+          <t>[27.36622859892225, 82.36320036995615]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.02583243854576578</v>
+        <v>0.0002201967049106912</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02583243854576578</v>
+        <v>0.0002201967049106912</v>
       </c>
       <c r="P5" t="n">
-        <v>1.515763422452733</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.25786846606042335, 2.7736583788450426]</t>
+          <t>[0.9622896416401163, 2.270500396288118]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.01929128690077686</v>
+        <v>9.92564263979645e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01929128690077686</v>
+        <v>9.92564263979645e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>53.01244779703081</v>
+        <v>57.86012263652127</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[35.51484460114453, 70.51005099291709]</t>
+          <t>[40.781431599711624, 74.93881367333091]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.201986428751468e-07</v>
+        <v>1.862679366304576e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>2.201986428751468e-07</v>
+        <v>1.862679366304576e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>18.26332332332357</v>
+        <v>17.89267267267292</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.44450450450469</v>
+        <v>15.38480480480501</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.08214214214245</v>
+        <v>20.40054054054082</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.07000000000032</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0003862778520917765</v>
+        <v>0.002474028456360244</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003862778520917765</v>
+        <v>0.002474028456360244</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>39.91789625512475</v>
+        <v>39.24597408452665</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[16.45720794047029, 63.3785845697792]</t>
+          <t>[14.010850707603637, 64.48109746144966]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001314603705668382</v>
+        <v>0.003046545685384316</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001314603705668382</v>
+        <v>0.003046545685384316</v>
       </c>
       <c r="P6" t="n">
-        <v>1.855395060678656</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 2.5220793875665803]</t>
+          <t>[0.9245527929483464, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.198828945891961e-06</v>
+        <v>9.303832854490324e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.198828945891961e-06</v>
+        <v>9.303832854490324e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>55.93394826234631</v>
+        <v>56.96506463658164</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.80962166599308, 69.05827485869953]</t>
+          <t>[41.88487529746999, 72.0452539756933]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.94984053744929e-11</v>
+        <v>1.288963158430079e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>4.94984053744929e-11</v>
+        <v>1.288963158430079e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>16.96224224224247</v>
+        <v>17.41039039039063</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.40826826826846</v>
+        <v>14.27555555555575</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.51621621621648</v>
+        <v>20.54522522522551</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.07000000000032</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001087398474985179</v>
+        <v>1.598079159026433e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001087398474985179</v>
+        <v>1.598079159026433e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>40.65547843027822</v>
+        <v>59.72834256474775</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[13.347577436842982, 67.96337942371346]</t>
+          <t>[30.04990620440556, 89.40677892508994]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.004406848095940052</v>
+        <v>0.0001974672950706413</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004406848095940052</v>
+        <v>0.0001974672950706413</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06923720326535</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.3899739268135027, 2.7485004797171966]</t>
+          <t>[0.685552751233808, 1.7421845146033492]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.963970810425764e-07</v>
+        <v>3.142646462772625e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.963970810425764e-07</v>
+        <v>3.142646462772625e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>67.86799274876273</v>
+        <v>59.67673062373861</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[53.37172886144725, 82.36425663607821]</t>
+          <t>[43.7533572252089, 75.60010402226831]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.168132423070347e-12</v>
+        <v>1.578442265781632e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>3.168132423070347e-12</v>
+        <v>1.578442265781632e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>16.14304304304326</v>
+        <v>19.43597597597624</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.54088088088106</v>
+        <v>17.41039039039062</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.74520520520545</v>
+        <v>21.46156156156186</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.07000000000032</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006375606939659662</v>
+        <v>2.103765948935354e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006375606939659662</v>
+        <v>2.103765948935354e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>45.36153659770087</v>
+        <v>60.70123645763391</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[12.81895022599386, 77.90412296940788]</t>
+          <t>[34.86739222701621, 86.53508068825161]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.007356317704745097</v>
+        <v>2.229050476065808e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007356317704745097</v>
+        <v>2.229050476065808e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>1.641552918091963</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.6729738016698859, 2.6101320345140406]</t>
+          <t>[1.0126054398958084, 2.0692372032653497]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.001367073817477804</v>
+        <v>4.79392310515081e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001367073817477804</v>
+        <v>4.79392310515081e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>72.25053356326242</v>
+        <v>75.00257779036573</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[53.046156892424165, 91.45491023410068]</t>
+          <t>[58.53335656489717, 91.4717990158343]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.430416896042175e-09</v>
+        <v>7.244871369493922e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.430416896042175e-09</v>
+        <v>7.244871369493922e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>17.78144144144168</v>
+        <v>18.18204204204229</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.07095095095115</v>
+        <v>16.15645645645667</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.49193193193222</v>
+        <v>20.20762762762791</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.07000000000032</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>6.588412777530639e-05</v>
+        <v>0.006842804566667415</v>
       </c>
       <c r="I9" t="n">
-        <v>6.588412777530639e-05</v>
+        <v>0.006842804566667415</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>42.86519469546109</v>
+        <v>40.57334995486008</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[21.46271903824851, 64.26767035267368]</t>
+          <t>[9.21695626451222, 71.92974364520794]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0002098980143530049</v>
+        <v>0.01237270443286453</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0002098980143530049</v>
+        <v>0.01237270443286453</v>
       </c>
       <c r="P9" t="n">
-        <v>1.779921363295117</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.2138686329185768, 2.345974093671658]</t>
+          <t>[0.8616580451287312, 2.84913207622858]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>9.981223292321317e-08</v>
+        <v>0.0004871148238609901</v>
       </c>
       <c r="S9" t="n">
-        <v>9.981223292321317e-08</v>
+        <v>0.0004871148238609901</v>
       </c>
       <c r="T9" t="n">
-        <v>53.52553020887785</v>
+        <v>69.42736240633408</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[41.054636392880816, 65.99642402487487]</t>
+          <t>[52.10586066585901, 86.74886414680915]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.051847746211479e-11</v>
+        <v>2.701050494380297e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>4.051847746211479e-11</v>
+        <v>2.701050494380297e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>17.2513713713716</v>
+        <v>16.97633633633657</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.0829029029031</v>
+        <v>13.16630630630649</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.41983983984011</v>
+        <v>20.78636636636665</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.84000000000029</v>
+        <v>24.43000000000038</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.041345521426209e-06</v>
+        <v>7.649569359680086e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>3.041345521426209e-06</v>
+        <v>7.649569359680086e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>64.27492713207273</v>
+        <v>64.35054435922916</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[37.81126440286411, 90.73858986128135]</t>
+          <t>[30.181113614605508, 98.51997510385281]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.317505622888682e-05</v>
+        <v>0.0004411267628159354</v>
       </c>
       <c r="O10" t="n">
-        <v>1.317505622888682e-05</v>
+        <v>0.0004411267628159354</v>
       </c>
       <c r="P10" t="n">
-        <v>1.754763464167271</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.2516054816103477, 2.257921446724195]</t>
+          <t>[1.3145002294299628, 2.4717635893108882]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.38234112624059e-09</v>
+        <v>4.147420118449929e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>9.38234112624059e-09</v>
+        <v>4.147420118449929e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>57.54036624983351</v>
+        <v>72.3950252538732</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.92920183560663, 73.1515306640604]</t>
+          <t>[53.37872524659046, 91.41132526115594]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.408408805720796e-09</v>
+        <v>1.054345277751167e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>2.408408805720796e-09</v>
+        <v>1.054345277751167e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>17.18198198198219</v>
+        <v>17.06920920920948</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.27287287287306</v>
+        <v>14.81939939939963</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.09109109109132</v>
+        <v>19.31901901901932</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.84000000000029</v>
+        <v>24.43000000000038</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1276146506652338</v>
+        <v>0.0001701992122744578</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1276146506652338</v>
+        <v>0.0001701992122744578</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>27.07326374251548</v>
+        <v>46.6799192708804</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-6.924854878263556, 61.07138236329452]</t>
+          <t>[18.854371113779308, 74.5054674279815]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1157406523901334</v>
+        <v>0.001511745581255219</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1157406523901334</v>
+        <v>0.001511745581255219</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83023716155081</v>
+        <v>2.094395102393195</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.018868424345884094, 3.6416058987557367]</t>
+          <t>[1.503184472888809, 2.6856057318975806]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.04775827863544557</v>
+        <v>6.427593790547803e-09</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04775827863544557</v>
+        <v>6.427593790547803e-09</v>
       </c>
       <c r="T11" t="n">
-        <v>61.18361085776085</v>
+        <v>57.94281145118419</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[42.68572461430883, 79.68149710121287]</t>
+          <t>[43.41720875584886, 72.46841414651952]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.238665180482769e-08</v>
+        <v>3.073121757068975e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>3.238665180482769e-08</v>
+        <v>3.073121757068975e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>16.89561561561582</v>
+        <v>16.28666666666692</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.02282282282294</v>
+        <v>13.98794794794817</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.7684084084087</v>
+        <v>18.58538538538568</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.84000000000029</v>
+        <v>24.43000000000038</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0002729691434665282</v>
+        <v>3.682075807298624e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002729691434665282</v>
+        <v>3.682075807298624e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>53.02202709519492</v>
+        <v>62.15531473116896</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[22.678204610957238, 83.3658495794326]</t>
+          <t>[28.22105799901938, 96.08957146331855]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001002534678232525</v>
+        <v>0.0006044887978942093</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001002534678232525</v>
+        <v>0.0006044887978942093</v>
       </c>
       <c r="P12" t="n">
-        <v>1.968605606753965</v>
+        <v>2.119553001521041</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.3396581285578097, 2.5975530849501194]</t>
+          <t>[1.5660792207084242, 2.6730267823336575]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.102705067257403e-07</v>
+        <v>9.045129090168302e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>1.102705067257403e-07</v>
+        <v>9.045129090168302e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>61.14225701945188</v>
+        <v>65.32244214080021</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[44.226176649746236, 78.05833738915751]</t>
+          <t>[47.80357976910639, 82.84130451249402]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.925687552808199e-09</v>
+        <v>1.797484827648077e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>3.925687552808199e-09</v>
+        <v>1.797484827648077e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>16.37061061061081</v>
+        <v>16.1888488488491</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.98422422422439</v>
+        <v>14.03685685685708</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.75699699699722</v>
+        <v>18.34084084084113</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.84000000000029</v>
+        <v>24.43000000000038</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001047246681256331</v>
+        <v>0.000154239293970182</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001047246681256331</v>
+        <v>0.000154239293970182</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>39.2895734616982</v>
+        <v>48.21900107081109</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[13.682780064504541, 64.89636685889185]</t>
+          <t>[24.54994097753554, 71.88806116408664]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.003424200727635274</v>
+        <v>0.0001689586126558673</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003424200727635274</v>
+        <v>0.0001689586126558673</v>
       </c>
       <c r="P13" t="n">
-        <v>1.956026657190042</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.2767633807381946, 2.6352899336418885]</t>
+          <t>[0.9245527929483472, 2.257921446724195]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>6.18289395237781e-07</v>
+        <v>1.742746980637477e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>6.18289395237781e-07</v>
+        <v>1.742746980637477e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>60.67241740851041</v>
+        <v>65.23630308447697</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[46.73937896197848, 74.60545585504232]</t>
+          <t>[50.294694913960655, 80.17791125499329]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.679545474393308e-11</v>
+        <v>2.48361331500746e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.679545474393308e-11</v>
+        <v>2.48361331500746e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>16.41833833833854</v>
+        <v>18.24302302302331</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.84104104104121</v>
+        <v>15.6508508508511</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.99563563563586</v>
+        <v>20.83519519519552</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.84000000000029</v>
+        <v>24.43000000000038</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00169466327391754</v>
+        <v>0.0001202389820016414</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00169466327391754</v>
+        <v>0.0001202389820016414</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>41.07323112519221</v>
+        <v>47.34741644335369</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[13.072832398877424, 69.073629851507]</t>
+          <t>[24.256498501314795, 70.43833438539258]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.004968042088926206</v>
+        <v>0.0001553461082928198</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004968042088926206</v>
+        <v>0.0001553461082928198</v>
       </c>
       <c r="P14" t="n">
-        <v>1.918289808498272</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.1509738850989626, 2.6856057318975806]</t>
+          <t>[1.0000264903318845, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>8.179350519110784e-06</v>
+        <v>4.45886434841114e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>8.179350519110784e-06</v>
+        <v>4.45886434841114e-06</v>
       </c>
       <c r="T14" t="n">
-        <v>55.14367604173018</v>
+        <v>57.23715411677752</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[39.95780250387979, 70.32954957958057]</t>
+          <t>[42.819224632525135, 71.65508360102992]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.498951350877633e-09</v>
+        <v>3.497009348762958e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>3.498951350877633e-09</v>
+        <v>3.497009348762958e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>16.56152152152172</v>
+        <v>18.09629629629658</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.6501301301303</v>
+        <v>15.65085085085109</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.47291291291315</v>
+        <v>20.54174174174207</v>
       </c>
     </row>
   </sheetData>
